--- a/resources/cleanclaim-docs/db-tables/1_AdminInfo.xlsx
+++ b/resources/cleanclaim-docs/db-tables/1_AdminInfo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23960" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="_1_AdminInfo" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,12 @@
   <definedNames>
     <definedName name="_1_AdminInfo">_1_AdminInfo!$A$1:$W$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -444,13 +449,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5" customWidth="1"/>
+    <col min="22" max="22" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -597,5 +620,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>